--- a/ILUM/Result/readmission_result.xlsx
+++ b/ILUM/Result/readmission_result.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">percentile</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t xml:space="preserve">readm_score_cutoff</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg_readm_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readm_percentile</t>
   </si>
   <si>
     <t xml:space="preserve">Kaiser Foundation Hospitals (CA)</t>
@@ -1018,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -1026,13 +1029,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>16.9142564066901</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1040,13 +1043,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>17.6736963900696</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1054,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>16.3502834930794</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1068,13 +1071,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>16.5774632307806</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1082,13 +1085,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>16.8271222658449</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>16.7786932264912</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1110,13 +1113,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>16.0403970316008</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1124,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>16.9380538572399</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1138,13 +1141,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>17.2385664105547</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1152,13 +1155,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>17.2145589464883</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1169,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>16.8027050399083</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1180,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>15.7789002005244</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -1194,13 +1197,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>15.953241125016</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>16.4400795207223</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1222,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>16.4930932759835</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1236,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>17.4434337445557</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1250,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>17.4879921518926</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1264,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
         <v>18.7418003527633</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -1278,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
         <v>15.9111003043988</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1292,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
         <v>17.1976677458124</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1306,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
         <v>17.4044520478094</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1320,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
         <v>15.6283563738867</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1334,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
         <v>18.8230698760965</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1348,13 +1351,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="n">
         <v>14.3636872852804</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1362,13 +1365,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
         <v>16.1776359784156</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -1376,13 +1379,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
         <v>17.4238642755517</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1390,13 +1393,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n">
         <v>16.5839189682102</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1404,13 +1407,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="n">
         <v>16.9059740318113</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1418,13 +1421,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
         <v>15.6190813437811</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -1432,13 +1435,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="n">
         <v>17.5024918167321</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1446,13 +1449,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="n">
         <v>15.4659424214039</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1460,13 +1463,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="n">
         <v>16.4869017371296</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1474,13 +1477,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
         <v>18.8495314455207</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1488,13 +1491,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
         <v>16.6285714285714</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1502,13 +1505,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
         <v>16.8938242902258</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1516,13 +1519,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="n">
         <v>16.9230206380974</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1530,13 +1533,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
         <v>17.9347828026792</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1544,13 +1547,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="n">
         <v>16.8576082241693</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1558,13 +1561,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="n">
         <v>16.1211974737005</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1572,13 +1575,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="n">
         <v>16.4818696563759</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1586,13 +1589,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="n">
         <v>17.8717178897484</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1600,13 +1603,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="n">
         <v>15.728648894988</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -1614,13 +1617,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="n">
         <v>16.9043930766014</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1628,13 +1631,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="n">
         <v>16.1567941990051</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1642,13 +1645,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" t="n">
         <v>17.0294174457822</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1656,13 +1659,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="n">
         <v>15.992698389851</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -1670,13 +1673,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
         <v>16.9473950720818</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1684,13 +1687,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="n">
         <v>16.854902656962</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1698,13 +1701,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
         <v>18.7235231376975</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -1712,13 +1715,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="n">
         <v>16.2353636008846</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1726,13 +1729,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="n">
         <v>17.9844709495466</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1740,13 +1743,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="n">
         <v>16.7</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1754,13 +1757,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="n">
         <v>16.2398716139375</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1768,13 +1771,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="n">
         <v>17.578299739626</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1782,13 +1785,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="n">
         <v>17.4499165958995</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1796,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" t="n">
         <v>17.3443152148113</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1810,13 +1813,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="n">
         <v>16.4400795207223</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1824,13 +1827,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" t="n">
         <v>17.0701370109969</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -1838,13 +1841,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" t="n">
         <v>17.5271197018598</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1852,13 +1855,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" t="n">
         <v>15.6</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
@@ -1866,13 +1869,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" t="n">
         <v>17.4038564883725</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1880,13 +1883,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" t="n">
         <v>16.6505193142549</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1894,13 +1897,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" t="n">
         <v>16.9502734382657</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1908,13 +1911,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" t="n">
         <v>17.045299481289</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1922,13 +1925,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" t="n">
         <v>16.6446267616155</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -1936,13 +1939,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" t="n">
         <v>18.4527587256935</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -1950,13 +1953,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" t="n">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -1964,13 +1967,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" t="n">
         <v>15.7107751759142</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -1978,13 +1981,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" t="n">
         <v>18.2172508800211</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -1992,13 +1995,13 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" t="n">
         <v>17.963846643238</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2009,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" t="n">
         <v>16.2470057029457</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2020,13 +2023,13 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="n">
         <v>16.1035278194604</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -2034,13 +2037,13 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" t="n">
         <v>15.9228201499083</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -2048,13 +2051,13 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" t="n">
         <v>17.2959141001026</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -2062,13 +2065,13 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" t="n">
         <v>15.2230140782265</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -2076,13 +2079,13 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="n">
         <v>14.8221651473007</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
@@ -2090,13 +2093,13 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" t="n">
         <v>16.8451204601422</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -2104,13 +2107,13 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79" t="n">
         <v>16.5333324667897</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2118,13 +2121,13 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" t="n">
         <v>17.1469276088921</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -2132,13 +2135,13 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" t="n">
         <v>17.7</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -2146,13 +2149,13 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82" t="n">
         <v>18.6</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -2160,13 +2163,13 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" t="n">
         <v>16.915914696814</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -2174,13 +2177,13 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" t="n">
         <v>15.8403109399933</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -2188,13 +2191,13 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" t="n">
         <v>15.8</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -2202,13 +2205,13 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>15.9839392803598</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -2216,13 +2219,13 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="n">
         <v>16.4653747956052</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -2230,13 +2233,13 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" t="n">
         <v>16.267349191653</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -2244,13 +2247,13 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" t="n">
         <v>17.5663997127945</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -2258,13 +2261,13 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" t="n">
         <v>18.4</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -2272,13 +2275,13 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" t="n">
         <v>16.6245965976609</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -2286,13 +2289,13 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
         <v>18.330397094431</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -2300,13 +2303,13 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93" t="n">
         <v>18.1572762757729</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -2314,13 +2317,13 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" t="n">
         <v>15.1763597816551</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2342,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
         <v>17.4879921518926</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" t="n">
         <v>17.4499165958995</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="n">
         <v>16.4930932759835</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
         <v>16.5774632307806</v>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
         <v>16.0702748562089</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
         <v>16.4869017371296</v>
@@ -2412,7 +2415,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="n">
         <v>14.8173800548703</v>
@@ -2421,7 +2424,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>15.6283563738867</v>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>16.1023706176962</v>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>17.0701370109969</v>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>15.9111003043988</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>18.7235231376975</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>18.4</v>
@@ -2485,7 +2488,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="n">
         <v>17.8717178897484</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="n">
         <v>15.9228201499083</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="n">
         <v>16.8874965773519</v>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="n">
         <v>16.0822505136761</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="n">
         <v>16.6446267616155</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="n">
         <v>14.6</v>
@@ -2547,7 +2550,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="n">
         <v>15.728648894988</v>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="n">
         <v>17.1976677458124</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="n">
         <v>14.958829584381</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="n">
         <v>16.1437256998445</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="n">
         <v>16.5</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="n">
         <v>16.8027050399083</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="n">
         <v>16.1035278194604</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" t="n">
         <v>16.1211974737005</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" t="n">
         <v>16.5839189682102</v>
@@ -2640,7 +2643,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" t="n">
         <v>15.4654324752958</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" t="n">
         <v>17.677746492151</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="n">
         <v>18.3165001743554</v>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" t="n">
         <v>18.8495314455207</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" t="n">
         <v>16.5098585316795</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
         <v>15.6190813437811</v>
@@ -2700,7 +2703,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="n">
         <v>16.2470057029457</v>
@@ -2711,7 +2714,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="n">
         <v>16.0477823893986</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="n">
         <v>14.3636872852804</v>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="n">
         <v>17.5024918167321</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" t="n">
         <v>16.9142564066901</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" t="n">
         <v>17.7007075720773</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" t="n">
         <v>15.6499872757348</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B43" t="n">
         <v>16.8688557682092</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="n">
         <v>16.5707641305061</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" t="n">
         <v>15.953241125016</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" t="n">
         <v>16.9502734382657</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" t="n">
         <v>16.8938242902258</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" t="n">
         <v>16.4818696563759</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" t="n">
         <v>16.9919290723123</v>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B50" t="n">
         <v>17.0294174457822</v>
@@ -2853,7 +2856,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" t="n">
         <v>15.7886501859549</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" t="n">
         <v>16.2600695340611</v>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
         <v>16.7</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" t="n">
         <v>18.4527587256935</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55" t="n">
         <v>15.8556766899051</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="n">
         <v>17.9707640544867</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B57" t="n">
         <v>17.4044520478094</v>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B58" t="n">
         <v>18.7418003527633</v>
@@ -2933,7 +2936,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B59" t="n">
         <v>16.1567941990051</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B60" t="n">
         <v>17</v>
@@ -2953,7 +2956,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B61" t="n">
         <v>16.9473950720818</v>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B62" t="n">
         <v>17.1469276088921</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" t="n">
         <v>15.8</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="n">
         <v>17.045299481289</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" t="n">
         <v>19.1</v>
@@ -3004,7 +3007,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B66" t="n">
         <v>17.1319020619332</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" t="n">
         <v>17.2145589464883</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" t="n">
         <v>15.837065306066</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" t="n">
         <v>17.5475984082954</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B70" t="n">
         <v>14.8221651473007</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" t="n">
         <v>16.2811289422613</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B72" t="n">
         <v>16.8737447078314</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B73" t="n">
         <v>17.9347828026792</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B74" t="n">
         <v>15.1763597816551</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" t="n">
         <v>15.8403109399933</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" t="n">
         <v>16.8576082241693</v>
@@ -3117,7 +3120,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" t="n">
         <v>17.963846643238</v>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" t="n">
         <v>16.2674166817196</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B79" t="n">
         <v>17.4238642755517</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B80" t="n">
         <v>16.854902656962</v>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81" t="n">
         <v>18.1</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B82" t="n">
         <v>15.7789002005244</v>
@@ -3181,7 +3184,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" t="n">
         <v>16.8271222658449</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B84" t="n">
         <v>15.992698389851</v>
@@ -3203,7 +3206,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" t="n">
         <v>16.7786932264912</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" t="n">
         <v>18.0715851035224</v>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" t="n">
         <v>18.9996074032529</v>
@@ -3232,7 +3235,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88" t="n">
         <v>18.1193016959198</v>
@@ -3241,7 +3244,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" t="n">
         <v>17.2119176710848</v>
@@ -3250,7 +3253,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B90" t="n">
         <v>16.2398716139375</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" t="n">
         <v>17.4038564883725</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" t="n">
         <v>16.3</v>
@@ -3283,7 +3286,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" t="n">
         <v>18.019042094027</v>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B94" t="n">
         <v>17.5271197018598</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B95" t="n">
         <v>17.2385664105547</v>
@@ -3314,7 +3317,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B96" t="n">
         <v>18.5874838208646</v>
@@ -3323,7 +3326,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" t="n">
         <v>15.6</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" t="n">
         <v>15.9312223562525</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>15.6889772915631</v>
@@ -3352,7 +3355,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>18.2172508800211</v>
